--- a/data/trans_dic/P36B08_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.7908264309939386</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9641687895734768</v>
+        <v>0.9641687895734766</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.7446033239743983</v>
@@ -685,7 +685,7 @@
         <v>0.8205244125617677</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9799821791747027</v>
+        <v>0.9799821791747023</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.717297715422075</v>
@@ -697,7 +697,7 @@
         <v>0.8040846113983807</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9716021051911579</v>
+        <v>0.9716021051911577</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6560184222784713</v>
+        <v>0.656591399504862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7285548194337443</v>
+        <v>0.7300421247135164</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7481486474575673</v>
+        <v>0.7476659591683344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9468320530419733</v>
+        <v>0.9459749590707522</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.6875165752053629</v>
+        <v>0.6935350166513189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8274207341996992</v>
+        <v>0.830952970332555</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.7756479927738199</v>
+        <v>0.7767883841820287</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9581057613785106</v>
+        <v>0.9589773799786213</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.684961956350797</v>
+        <v>0.6852111953781236</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7876201124468272</v>
+        <v>0.7833045624391086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.7752784788401664</v>
+        <v>0.772774172491711</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.959510773162224</v>
+        <v>0.9599250829934588</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7426010014243879</v>
+        <v>0.7401401829275259</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8125064588468843</v>
+        <v>0.8153406046259537</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8295338756534562</v>
+        <v>0.8304843819981456</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9777489351929347</v>
+        <v>0.9760235005131901</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7875754848078218</v>
+        <v>0.7903453558444423</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9055895831719062</v>
+        <v>0.9112231857044191</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8548794234106657</v>
+        <v>0.8588875016880254</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9903649081072465</v>
+        <v>0.9904255355850653</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.746777010697981</v>
+        <v>0.7511729464537475</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.8464058327025067</v>
+        <v>0.8447883929903907</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.833905117069197</v>
+        <v>0.8310524741551631</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9817415698313362</v>
+        <v>0.9809433732902889</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.786145975399498</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.9564575670608023</v>
+        <v>0.9564575670608028</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.6887618934334176</v>
@@ -833,7 +833,7 @@
         <v>0.7887695519992951</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9640725510892889</v>
+        <v>0.9640725510892888</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5930947691939062</v>
+        <v>0.5911928546546455</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7061944640401012</v>
+        <v>0.7033383676913223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7430676967183417</v>
+        <v>0.7405907822247678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.930817927705185</v>
+        <v>0.9311778568861712</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6382150012881129</v>
+        <v>0.6379286339224461</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.741532388393993</v>
+        <v>0.737158833084251</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.7475056865857704</v>
+        <v>0.7469569489726602</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9523013979877591</v>
+        <v>0.9507943204058504</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6321767359035328</v>
+        <v>0.6305083279707465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.735652425429293</v>
+        <v>0.734585898059416</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7584347213409515</v>
+        <v>0.7596105674156494</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9488085072448709</v>
+        <v>0.9484212167268852</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6924796619492876</v>
+        <v>0.6979340241715178</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7964569856658851</v>
+        <v>0.7944732706768306</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8280721196350409</v>
+        <v>0.8253574906864466</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9735698251843444</v>
+        <v>0.9749872509059498</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.7361339850095511</v>
+        <v>0.7359680057937196</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8284947469620965</v>
+        <v>0.8325824680189252</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.8306002767406895</v>
+        <v>0.8326426223658606</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9858716690598276</v>
+        <v>0.9850519199042043</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7015101588399558</v>
+        <v>0.6992177004101624</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8005323722594802</v>
+        <v>0.7969341397594667</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8154665108366921</v>
+        <v>0.8191576708247299</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9756804635653303</v>
+        <v>0.9750943486470004</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6998429905773743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.9519685031809002</v>
+        <v>0.9519685031809001</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.6954773226946555</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5753116713827339</v>
+        <v>0.5816896417897552</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7064321976974782</v>
+        <v>0.7055082705353072</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.658551601193662</v>
+        <v>0.6537105651636702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.927018138717647</v>
+        <v>0.9251328038895358</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6150823761788565</v>
+        <v>0.6164354915382163</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7475688999786039</v>
+        <v>0.7489885564277428</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7284648586819468</v>
+        <v>0.7252728246399468</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9192502075455818</v>
+        <v>0.9214428841745816</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6022681851828439</v>
+        <v>0.6028127692482238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7317633611114456</v>
+        <v>0.7285235703142858</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6857934195157618</v>
+        <v>0.6848333250838716</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9331343528707021</v>
+        <v>0.9320812753314481</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6612124710175095</v>
+        <v>0.6642798649313471</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7774168207733074</v>
+        <v>0.7764696630305969</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7395648954064743</v>
+        <v>0.7369432044039466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9704527098505417</v>
+        <v>0.9690928532118223</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.762205210962318</v>
+        <v>0.7620601781898574</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8521068449403764</v>
+        <v>0.8536328796095748</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8529552439672917</v>
+        <v>0.853841838018144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9750481342035675</v>
+        <v>0.9747507206885323</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6753254080555986</v>
+        <v>0.6744511789523995</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.7889485011310944</v>
+        <v>0.7906814964931658</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7560505259065368</v>
+        <v>0.7534100632355586</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9672081408337945</v>
+        <v>0.9667786872248505</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.7310602038432555</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9456001209352868</v>
+        <v>0.9456001209352867</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6212151608818796</v>
+        <v>0.6175811616527096</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6799156674771353</v>
+        <v>0.6805361145985035</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6833157714349481</v>
+        <v>0.6838347888916981</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9241758922491341</v>
+        <v>0.9251092437429677</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6763216167027218</v>
+        <v>0.6779846194226357</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7522403312061304</v>
+        <v>0.752063851130741</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7252296032492902</v>
+        <v>0.72828507549855</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9367013144036638</v>
+        <v>0.9371345579919047</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.648559794411442</v>
+        <v>0.6498333602887998</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7144553353201114</v>
+        <v>0.7185659596533798</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7111763463640224</v>
+        <v>0.7109060567866413</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.9334540402443169</v>
+        <v>0.9349772858287123</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6743355211408339</v>
+        <v>0.6717770600289621</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7367462534253375</v>
+        <v>0.7354754468945315</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.738607285352905</v>
+        <v>0.7404789224393328</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9554248911979248</v>
+        <v>0.9544310687982012</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7460803190779284</v>
+        <v>0.7437123649212969</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8146793517062355</v>
+        <v>0.8107574345529295</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.7884163183406949</v>
+        <v>0.7885633126195979</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9640001110397242</v>
+        <v>0.9648263112907872</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.69062620485697</v>
+        <v>0.690585037222831</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.756880217289405</v>
+        <v>0.7587055312641238</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7510238051939661</v>
+        <v>0.7511292850997062</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9544875520713231</v>
+        <v>0.9567428340425713</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.725428023921988</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9308944795552275</v>
+        <v>0.9308944795552273</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.7093698978293292</v>
@@ -1241,7 +1241,7 @@
         <v>0.7553479358957782</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.942967373995518</v>
+        <v>0.9429673739955177</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5320396626167972</v>
+        <v>0.5357476957258969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6578397230447929</v>
+        <v>0.6669299193184157</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6896412919539544</v>
+        <v>0.6879444892357989</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9015887677787695</v>
+        <v>0.9039429163570493</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6726068359708643</v>
+        <v>0.6715434076181639</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7521731667306832</v>
+        <v>0.7561963178342396</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7492593791983571</v>
+        <v>0.7506851645483104</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9365999104871725</v>
+        <v>0.936076618765083</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6298740409962232</v>
+        <v>0.6278248984045212</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.729029591756914</v>
+        <v>0.728497797832991</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7305493942094827</v>
+        <v>0.7325918949928573</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9282465729861442</v>
+        <v>0.9304767382460284</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6367232817089664</v>
+        <v>0.6395952420274323</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7417113120628177</v>
+        <v>0.746224431216574</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7605044742132394</v>
+        <v>0.7630615713683067</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9511681841848891</v>
+        <v>0.9526624830064836</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7481124945674555</v>
+        <v>0.7494471647274344</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8142866306650861</v>
+        <v>0.8203273251925975</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8089377300901444</v>
+        <v>0.8121915070461446</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9620150013771452</v>
+        <v>0.9609915062840656</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.695009392595881</v>
+        <v>0.6951600512142945</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7791044624190813</v>
+        <v>0.7789103050693011</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.777341637763432</v>
+        <v>0.7800801403353239</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9545329593934353</v>
+        <v>0.9544643124830526</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.7558327378581013</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.951160597452102</v>
+        <v>0.9511605974521022</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.6749850493219987</v>
@@ -1377,7 +1377,7 @@
         <v>0.7285815431248772</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9389987479977946</v>
+        <v>0.9389987479977947</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4615592952359058</v>
+        <v>0.4592370333972</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4382163464282208</v>
+        <v>0.4422360210332615</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5628834522195173</v>
+        <v>0.5622149312444433</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.8103324797205228</v>
+        <v>0.8149929770066507</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.6851610946574438</v>
+        <v>0.6841632925775321</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7615855130965608</v>
+        <v>0.7604478627281483</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.729225951871364</v>
+        <v>0.7279631163738038</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9315891722300543</v>
+        <v>0.9323236581796707</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6482744970765532</v>
+        <v>0.6507391105148227</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7074742323880927</v>
+        <v>0.7091809874960331</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7045008306379335</v>
+        <v>0.7034533199048217</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.9206152199430133</v>
+        <v>0.9159367877818756</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5723345571506145</v>
+        <v>0.5716432687310918</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5592724302254236</v>
+        <v>0.5654680168172107</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6804183220913839</v>
+        <v>0.6773021984461227</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9441080769121594</v>
+        <v>0.9466594541722666</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.7370614490740766</v>
+        <v>0.7363206905282286</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8125601691794129</v>
+        <v>0.8114835855423823</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.7798547949776266</v>
+        <v>0.7813618215388274</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9637957257863888</v>
+        <v>0.9643387551604584</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6986921913718915</v>
+        <v>0.6971178969529616</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7555904497918096</v>
+        <v>0.755505769082736</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7540853226648878</v>
+        <v>0.7528946373015583</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9559039603438502</v>
+        <v>0.9541270585063797</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.773829621845705</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.9579080073668998</v>
+        <v>0.9579080073669</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6722124583624692</v>
@@ -1513,7 +1513,7 @@
         <v>0.7489973134078551</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9508772093797758</v>
+        <v>0.9508772093797757</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6154767043117394</v>
+        <v>0.6155048813764027</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6953378102443638</v>
+        <v>0.6937429973174295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.7068909778195018</v>
+        <v>0.7078540046705425</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9337328673728007</v>
+        <v>0.9329604888456537</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6955723975780372</v>
+        <v>0.696594294152953</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7811629268504069</v>
+        <v>0.7820505935727468</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7583765022113509</v>
+        <v>0.7590871736136293</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9512688901437819</v>
+        <v>0.9508912374811767</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6614585606382632</v>
+        <v>0.6606379348447439</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7431674637507143</v>
+        <v>0.7436205247910468</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7369448793184661</v>
+        <v>0.739369132792547</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9451180658767808</v>
+        <v>0.9450699375456222</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6473470960850247</v>
+        <v>0.6504320757632321</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7275168649534784</v>
+        <v>0.7266133745878048</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7382163757215876</v>
+        <v>0.7382762849189887</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9519707700509125</v>
+        <v>0.9514490922699371</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7268649588775632</v>
+        <v>0.7257424348083424</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.8081564704576518</v>
+        <v>0.8088517485477321</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.7887311644837257</v>
+        <v>0.7877073707829386</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.963853939918346</v>
+        <v>0.9635494014478677</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6835488040074073</v>
+        <v>0.6840868611635711</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7649197681777991</v>
+        <v>0.7649710143594279</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7592184450745024</v>
+        <v>0.7599727242766119</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9564074596435552</v>
+        <v>0.9557099051729651</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>310259</v>
+        <v>310530</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>317001</v>
+        <v>317649</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>321025</v>
+        <v>320817</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>521343</v>
+        <v>520871</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>210848</v>
+        <v>212693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>258585</v>
+        <v>259689</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>268412</v>
+        <v>268807</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>467949</v>
+        <v>468375</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>534012</v>
+        <v>534206</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>588848</v>
+        <v>585621</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>600950</v>
+        <v>599009</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>996960</v>
+        <v>997390</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>351207</v>
+        <v>350043</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>353530</v>
+        <v>354763</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>355946</v>
+        <v>356354</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>538366</v>
+        <v>537416</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>241534</v>
+        <v>242383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>283014</v>
+        <v>284775</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>295830</v>
+        <v>297217</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>483705</v>
+        <v>483735</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>582205</v>
+        <v>585632</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>632798</v>
+        <v>631588</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>646394</v>
+        <v>644183</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1020058</v>
+        <v>1019229</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>217627</v>
+        <v>216929</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>295034</v>
+        <v>293841</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>279497</v>
+        <v>278565</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>449111</v>
+        <v>449285</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>237330</v>
+        <v>237223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>248500</v>
+        <v>247034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>275016</v>
+        <v>274814</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>402031</v>
+        <v>401395</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>467052</v>
+        <v>465819</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>553871</v>
+        <v>553068</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>564313</v>
+        <v>565188</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>858348</v>
+        <v>857998</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>254094</v>
+        <v>256096</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>332744</v>
+        <v>331915</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>311470</v>
+        <v>310449</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>469739</v>
+        <v>470423</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>273742</v>
+        <v>273681</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>277643</v>
+        <v>279013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>305587</v>
+        <v>306338</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>416203</v>
+        <v>415857</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>518275</v>
+        <v>516581</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>602718</v>
+        <v>600009</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>606748</v>
+        <v>609494</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>882658</v>
+        <v>882128</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>312043</v>
+        <v>315502</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>444639</v>
+        <v>444057</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>343707</v>
+        <v>341181</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>437193</v>
+        <v>436304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>103200</v>
+        <v>103427</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>194464</v>
+        <v>194834</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>120330</v>
+        <v>119803</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>172357</v>
+        <v>172768</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>427713</v>
+        <v>428100</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>650936</v>
+        <v>648054</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>471206</v>
+        <v>470546</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>615037</v>
+        <v>614343</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>358634</v>
+        <v>360298</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>489318</v>
+        <v>488722</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>385989</v>
+        <v>384621</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>457677</v>
+        <v>457036</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>127884</v>
+        <v>127860</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>221658</v>
+        <v>222055</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>140894</v>
+        <v>141040</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>182819</v>
+        <v>182763</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>479597</v>
+        <v>478976</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>701804</v>
+        <v>703346</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>519479</v>
+        <v>517665</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>637496</v>
+        <v>637213</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>769272</v>
+        <v>764772</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>785974</v>
+        <v>786692</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>778056</v>
+        <v>778647</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1043350</v>
+        <v>1044404</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>483086</v>
+        <v>484274</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>573813</v>
+        <v>573678</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>597479</v>
+        <v>599996</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>806163</v>
+        <v>806535</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1266391</v>
+        <v>1268878</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>1370892</v>
+        <v>1378779</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1395680</v>
+        <v>1395150</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1857193</v>
+        <v>1860223</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>835053</v>
+        <v>831884</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>851670</v>
+        <v>850201</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>841014</v>
+        <v>843145</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1078629</v>
+        <v>1077507</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>532914</v>
+        <v>531223</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>621441</v>
+        <v>618450</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>649535</v>
+        <v>649656</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>829657</v>
+        <v>830368</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1348531</v>
+        <v>1348450</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1452296</v>
+        <v>1455799</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1473880</v>
+        <v>1474087</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1899041</v>
+        <v>1903528</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>186509</v>
+        <v>187809</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>335188</v>
+        <v>339819</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>425296</v>
+        <v>424249</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>511094</v>
+        <v>512429</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>381834</v>
+        <v>381230</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>571931</v>
+        <v>574991</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>551523</v>
+        <v>552573</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>776844</v>
+        <v>776410</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>578380</v>
+        <v>576498</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>925795</v>
+        <v>925119</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>988274</v>
+        <v>991037</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1296122</v>
+        <v>1299236</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>223207</v>
+        <v>224213</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>377923</v>
+        <v>380222</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>468996</v>
+        <v>470573</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>539200</v>
+        <v>540047</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>424697</v>
+        <v>425455</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>619161</v>
+        <v>623754</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>595452</v>
+        <v>597847</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>797924</v>
+        <v>797075</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>638190</v>
+        <v>638329</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>989385</v>
+        <v>989138</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1051574</v>
+        <v>1055278</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1332826</v>
+        <v>1332730</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>137637</v>
+        <v>136945</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>116952</v>
+        <v>118025</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>161018</v>
+        <v>160827</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>192234</v>
+        <v>193339</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>855602</v>
+        <v>854356</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>844866</v>
+        <v>843604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>784469</v>
+        <v>783111</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>785444</v>
+        <v>786064</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1002855</v>
+        <v>1006667</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>973649</v>
+        <v>975998</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>959401</v>
+        <v>957974</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>994588</v>
+        <v>989533</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>170671</v>
+        <v>170465</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>149260</v>
+        <v>150913</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>194640</v>
+        <v>193749</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>223969</v>
+        <v>224574</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>920413</v>
+        <v>919488</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>901414</v>
+        <v>900220</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>838933</v>
+        <v>840555</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>812598</v>
+        <v>813056</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1080849</v>
+        <v>1078414</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>1039869</v>
+        <v>1039752</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>1026925</v>
+        <v>1025304</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>1032712</v>
+        <v>1030792</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2012212</v>
+        <v>2012305</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2374372</v>
+        <v>2368926</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2381193</v>
+        <v>2384437</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3209971</v>
+        <v>3207316</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2348993</v>
+        <v>2352444</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2765546</v>
+        <v>2768688</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>2665571</v>
+        <v>2668068</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3454312</v>
+        <v>3452941</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>4396331</v>
+        <v>4390877</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>5168727</v>
+        <v>5171878</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>5072672</v>
+        <v>5089359</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>6681088</v>
+        <v>6680748</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>2116408</v>
+        <v>2126494</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2484254</v>
+        <v>2481169</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2486714</v>
+        <v>2486915</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3272669</v>
+        <v>3270876</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2454669</v>
+        <v>2450879</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2861111</v>
+        <v>2863572</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>2772262</v>
+        <v>2768664</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>3500012</v>
+        <v>3498906</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4543152</v>
+        <v>4546729</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>5320014</v>
+        <v>5320370</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>5225990</v>
+        <v>5231182</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>6760893</v>
+        <v>6755962</v>
       </c>
     </row>
     <row r="32">
